--- a/src/demos/zdemo_excel15#2.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15#2.w3mi.data.xlsx
@@ -16,6 +16,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+  <si>
+    <t/>
+  </si>
   <si>
     <t>Bold text</t>
   </si>
@@ -113,7 +116,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none">
         <bgColor indexed="64"/>
@@ -224,6 +227,16 @@
         </stop>
         <stop position="1">
           <color rgb="FFFFFFFF"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" bottom="0.5" top="0.5" right="0.5" left="0.5">
+        <stop position="0">
+          <color rgb="FFFFFFFF" indexed="64"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF0000FF"/>
         </stop>
       </gradientFill>
     </fill>
@@ -323,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,13 +358,82 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="0040E0D0"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -617,7 +699,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="B1:E23"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,116 +707,116 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:5">
       <c r=""/>
     </row>
-    <row r="2" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="0.0000000000000000E+00">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="0.0000000000000000E+00">
-      <c r="D4" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="22" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="0.0000000000000000E+00">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="0.0000000000000000E+00">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="0.0000000000000000E+00">
-      <c r="D7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="0.0000000000000000E+00">
-      <c r="B9" s="21" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C11" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B12" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C13" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C15" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C17" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B18" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
+      <c r="C21" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="B20" s="17" t="s">
+    <row r="22" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
+      <c r="B22" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
+      <c r="C23" s="21" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="C21" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="B22" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="C23" s="20" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
